--- a/Design/Excel/GameHot/Datas/__enums__.xlsx
+++ b/Design/Excel/GameHot/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12615"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>ECardPile</t>
+  </si>
+  <si>
+    <t>c,e,s</t>
+  </si>
+  <si>
+    <t>所属牌堆</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>基础牌堆</t>
   </si>
 </sst>
 </file>
@@ -96,13 +111,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -249,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +286,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,12 +477,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,141 +618,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,97 +1086,126 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L23"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
-    <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9.38333333333333" customWidth="1"/>
-    <col min="7" max="7" width="7.575" customWidth="1"/>
-    <col min="8" max="8" width="13.5083333333333" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.0833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.38333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.575" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5083333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="12.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.4166666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.58333333333333" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/GameHot/Datas/__enums__.xlsx
+++ b/Design/Excel/GameHot/Datas/__enums__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="21000" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,42 @@
   </si>
   <si>
     <t>基础牌堆</t>
+  </si>
+  <si>
+    <t>ECardAttr</t>
+  </si>
+  <si>
+    <t>卡牌属性</t>
+  </si>
+  <si>
+    <t>Jin</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>Shui</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>Huo</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>土</t>
   </si>
 </sst>
 </file>
@@ -277,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +323,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +672,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,16 +696,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -666,85 +714,85 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,14 +803,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,52 +1134,52 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.0833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.38333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.575" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="12.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.4166666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.58333333333333" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.0833333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.3333333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.38333333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.575" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5083333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="12.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.4166666666667" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.58333333333333" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5"/>
@@ -1140,52 +1188,52 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" s="2" customFormat="1" spans="2:9">
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1206,6 +1254,61 @@
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="2:9">
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="8:9">
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="8:9">
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="8:9">
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="8:9">
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
